--- a/day02-1/HTML表格作業.xlsx
+++ b/day02-1/HTML表格作業.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\buildschool-env\flyingtrista.github.io\day02-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0973438-F15C-4E5C-AD39-60FFAF04FFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC56428-68AC-4D05-A5FE-7798DEC67E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,6 +923,12 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,140 +938,134 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K20"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1406,21 +1406,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.25">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
@@ -1474,11 +1474,11 @@
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
@@ -1494,12 +1494,12 @@
       <c r="J3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
       <c r="O3" s="2">
         <v>1</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="4"/>
@@ -1519,17 +1519,17 @@
       <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="36" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="16" t="s">
         <v>83</v>
       </c>
@@ -1545,22 +1545,22 @@
       <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="4">
         <v>20</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="48" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="44" t="s">
         <v>84</v>
       </c>
       <c r="L5" s="16" t="s">
@@ -1581,22 +1581,22 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="27">
         <v>10</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="26"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="15" t="s">
         <v>20</v>
       </c>
@@ -1615,16 +1615,16 @@
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="18" t="s">
         <v>5</v>
       </c>
@@ -1643,35 +1643,35 @@
       <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="27">
         <v>1</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="27">
         <v>40</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="42"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="4">
         <v>160</v>
       </c>
@@ -1687,19 +1687,19 @@
       <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="36" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="4">
         <v>120</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="4">
         <v>2</v>
       </c>
@@ -1740,10 +1740,10 @@
       <c r="J10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="60" t="s">
+      <c r="K10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="61"/>
+      <c r="L10" s="51"/>
       <c r="M10" s="4">
         <v>120</v>
       </c>
@@ -1759,32 +1759,32 @@
       <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="25">
+      <c r="B11" s="28"/>
+      <c r="C11" s="27">
         <v>3</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="27">
         <v>40</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="54" t="s">
         <v>43</v>
       </c>
       <c r="L11" s="18" t="s">
@@ -1805,16 +1805,16 @@
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="50"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="18" t="s">
         <v>26</v>
       </c>
@@ -1833,32 +1833,32 @@
       <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="27">
         <v>4</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="63" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="16" t="s">
@@ -1879,16 +1879,16 @@
       <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="50"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="18" t="s">
         <v>3</v>
       </c>
@@ -1907,31 +1907,31 @@
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27">
         <v>80</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="54" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="25">
+      <c r="L15" s="57"/>
+      <c r="M15" s="27">
         <v>120</v>
       </c>
-      <c r="N15" s="33" t="s">
+      <c r="N15" s="47" t="s">
         <v>16</v>
       </c>
       <c r="O15" s="2">
@@ -1945,23 +1945,23 @@
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="39"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="70"/>
       <c r="O16" s="2">
         <v>14</v>
       </c>
@@ -1969,39 +1969,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="27">
         <v>5</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="27">
         <v>40</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="34"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="48"/>
       <c r="O17" s="2">
         <v>15</v>
       </c>
@@ -2013,25 +2013,25 @@
       <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="27" t="s">
         <v>15</v>
       </c>
       <c r="O18" s="2">
@@ -2045,33 +2045,33 @@
       <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="25" t="s">
+      <c r="H19" s="71"/>
+      <c r="I19" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
       <c r="O19" s="2">
         <v>17</v>
       </c>
@@ -2083,16 +2083,16 @@
       <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="29"/>
       <c r="L20" s="19" t="s">
         <v>5</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
         <v>53</v>
@@ -2121,23 +2121,23 @@
       <c r="E21" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="28" t="s">
+      <c r="G21" s="50"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="29"/>
+      <c r="J21" s="65"/>
       <c r="K21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="68"/>
       <c r="O21" s="2">
         <v>19</v>
       </c>
@@ -2149,35 +2149,35 @@
       <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="25" t="s">
+      <c r="H22" s="71"/>
+      <c r="I22" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="29"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="65"/>
       <c r="O22" s="2">
         <v>20</v>
       </c>
@@ -2189,21 +2189,21 @@
       <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="36" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="38"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
       <c r="O23" s="2">
         <v>21</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>51</v>
@@ -2223,19 +2223,19 @@
       <c r="E24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="36" t="s">
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="38"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
       <c r="O24" s="2">
         <v>22</v>
       </c>
@@ -2936,6 +2936,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="K3:N3"/>
@@ -2952,72 +3018,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
